--- a/kakeibo/家計簿ver1.2.xlsx
+++ b/kakeibo/家計簿ver1.2.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="201808" sheetId="1" r:id="rId1"/>
+    <sheet name="param" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="自動手動">param!$A$1:$A$2</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>日常支出</t>
     <rPh sb="0" eb="2">
@@ -193,6 +197,214 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DVD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日日付</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定合計</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績合計</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定-実績</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓※本日日付のみ編集</t>
+    <rPh sb="2" eb="4">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑誌</t>
+    <rPh sb="0" eb="2">
+      <t>ザッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始年月日</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使い方</t>
+    <rPh sb="0" eb="1">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜月初め＞</t>
+    <rPh sb="1" eb="3">
+      <t>ツキハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．このシートをコピーして複製</t>
+    <rPh sb="13" eb="15">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．開始年月日を指定</t>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜日次処理＞</t>
+    <rPh sb="1" eb="3">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．本日日付の設定</t>
+    <rPh sb="2" eb="4">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．日次の実績を入力</t>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手動</t>
+    <rPh sb="0" eb="2">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予備１</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予備２</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予備３</t>
+    <rPh sb="0" eb="2">
+      <t>ヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．日次の予定を入力（合計除く）</t>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -207,181 +419,113 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DVD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本日日付</t>
+    <t>日常or特別→</t>
     <rPh sb="0" eb="2">
-      <t>ホンジツ</t>
-    </rPh>
+      <t>ニチジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トクベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動or手動→</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勘定科目→</t>
+    <rPh sb="0" eb="4">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．勘定科目入力（ex.旅費）</t>
+    <rPh sb="2" eb="6">
+      <t>カンジョウカモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>５．科目の入力欄が足りなければ、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AC～AH列の再表示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で予備分表示</t>
+    </r>
     <rPh sb="2" eb="4">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定合計</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実績合計</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予定-実績</t>
-    <rPh sb="0" eb="2">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓※本日日付のみ編集</t>
-    <rPh sb="2" eb="4">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑誌</t>
-    <rPh sb="0" eb="2">
-      <t>ザッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始年月日</t>
-    <rPh sb="0" eb="2">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>↓※開始年月日設定</t>
+      <t>カモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>サイヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨビ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓※開始年月日を設定</t>
     <rPh sb="2" eb="4">
       <t>カイシ</t>
     </rPh>
     <rPh sb="4" eb="7">
       <t>ネンガッピ</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="8" eb="10">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使い方</t>
-    <rPh sb="0" eb="1">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３．日次の予定を入力（合計除く）</t>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ノゾ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜月初め＞</t>
-    <rPh sb="1" eb="3">
-      <t>ツキハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．このシートをコピーして複製</t>
-    <rPh sb="13" eb="15">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．開始年月日を指定</t>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>＜日次処理＞</t>
-    <rPh sb="1" eb="3">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１．本日日付の設定</t>
-    <rPh sb="2" eb="4">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２．日次の実績を入力</t>
-    <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -390,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +602,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,19 +656,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,14 +755,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -595,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,30 +838,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -701,81 +853,56 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -843,8 +970,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1142,18 +1269,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="4.25" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
@@ -1178,458 +1305,558 @@
     <col min="26" max="26" width="5.25" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5.625" customWidth="1"/>
     <col min="28" max="28" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.625" customWidth="1"/>
-    <col min="30" max="30" width="5" customWidth="1"/>
-    <col min="31" max="31" width="13.5" customWidth="1"/>
-    <col min="32" max="32" width="7.375" customWidth="1"/>
-    <col min="33" max="33" width="7.5" customWidth="1"/>
-    <col min="34" max="34" width="6.75" customWidth="1"/>
+    <col min="29" max="29" width="6.25" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="6.5" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="5.25" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="5.625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="4.25" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="5.625" customWidth="1"/>
+    <col min="36" max="36" width="5" customWidth="1"/>
+    <col min="37" max="37" width="13.5" customWidth="1"/>
+    <col min="38" max="38" width="7.375" customWidth="1"/>
+    <col min="39" max="39" width="7.5" customWidth="1"/>
+    <col min="40" max="40" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="27" t="s">
+    <row r="1" spans="1:40" s="35" customFormat="1" ht="9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="35" t="str">
+        <f>C3&amp;C5</f>
+        <v>手動予定</v>
+      </c>
+      <c r="D1" s="35" t="str">
+        <f t="shared" ref="D1:AJ1" si="0">D3&amp;D5</f>
+        <v>手動実績</v>
+      </c>
+      <c r="E1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="F1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="G1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="H1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="I1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="J1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="K1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="L1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="M1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="N1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="O1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="P1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="Q1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="R1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="S1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="T1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="U1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="V1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="W1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="X1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="Y1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="Z1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AA1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AB1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AC1" s="35" t="str">
+        <f t="shared" ref="AC1:AH1" si="1">AC3&amp;AC5</f>
+        <v>手動予定</v>
+      </c>
+      <c r="AD1" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AE1" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AF1" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AG1" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AH1" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AI1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AJ1" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AK1" s="35" t="str">
+        <f>AK3&amp;AK5</f>
+        <v>詳細</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-    </row>
-    <row r="2" spans="1:34" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="27" t="s">
-        <v>4</v>
-      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
       <c r="T2" s="27"/>
-      <c r="U2" s="27" t="s">
-        <v>5</v>
-      </c>
+      <c r="U2" s="27"/>
       <c r="V2" s="27"/>
-      <c r="W2" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="W2" s="27"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
-      <c r="AA2" s="27" t="s">
-        <v>10</v>
-      </c>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
-      <c r="AC2" s="27" t="s">
-        <v>9</v>
-      </c>
+      <c r="AC2" s="27"/>
       <c r="AD2" s="27"/>
       <c r="AE2" s="27"/>
-      <c r="AG2" s="5" t="s">
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="33"/>
+    </row>
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="31" t="str">
+        <f>C3</f>
+        <v>手動</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="31" t="str">
+        <f>E3</f>
+        <v>手動</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="31" t="str">
+        <f>G3</f>
+        <v>自動</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="31" t="str">
+        <f>I3</f>
+        <v>自動</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="31" t="str">
+        <f>K3</f>
+        <v>自動</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="31" t="str">
+        <f>M3</f>
+        <v>自動</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="31" t="str">
+        <f>O3</f>
+        <v>自動</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="31" t="str">
+        <f>Q3</f>
+        <v>自動</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="31" t="str">
+        <f>S3</f>
+        <v>手動</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="31" t="str">
+        <f>U3</f>
+        <v>手動</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="31" t="str">
+        <f>W3</f>
+        <v>手動</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="31" t="str">
+        <f>Y3</f>
+        <v>手動</v>
+      </c>
+      <c r="AA3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="31" t="str">
+        <f>AA3</f>
+        <v>手動</v>
+      </c>
+      <c r="AC3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD3" s="31" t="str">
+        <f>AC3</f>
+        <v>手動</v>
+      </c>
+      <c r="AE3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="31" t="str">
+        <f>AE3</f>
+        <v>手動</v>
+      </c>
+      <c r="AG3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="31" t="str">
+        <f>AG3</f>
+        <v>手動</v>
+      </c>
+      <c r="AI3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="32" t="str">
+        <f>AI3</f>
+        <v>手動</v>
+      </c>
+      <c r="AK3" s="34"/>
+    </row>
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="41"/>
+      <c r="AM4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AN4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="4" t="s">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AB5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="11">
-        <f>$AG$4+$AG$5</f>
+      <c r="AM5" s="11">
+        <f>AM6+AM7</f>
         <v>245400</v>
       </c>
-      <c r="AH3" s="12">
-        <f>$AH$4+$AH$5</f>
+      <c r="AN5" s="12">
+        <f>AN6+AN7</f>
         <v>47870</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A4" s="30">
-        <f>AG13</f>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <f>AM15</f>
         <v>43327</v>
       </c>
-      <c r="B4" s="30" t="str">
-        <f>TEXT(A4,"aaa")</f>
+      <c r="B6" s="22" t="str">
+        <f>TEXT(A6,"aaa")</f>
         <v>水</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1300</v>
-      </c>
-      <c r="E4" s="2">
-        <v>200</v>
-      </c>
-      <c r="F4" s="13">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="T4" s="13">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>9000</v>
-      </c>
-      <c r="X4" s="13">
-        <v>9000</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>15000</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>15000</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG4" s="5">
-        <f>G35+I35+K35+M35+O35+Q35</f>
-        <v>97100</v>
-      </c>
-      <c r="AH4" s="10">
-        <f>H35+J35+L35+N35+P35+R35</f>
-        <v>6700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A5" s="30">
-        <f>A4+1</f>
-        <v>43328</v>
-      </c>
-      <c r="B5" s="30" t="str">
-        <f t="shared" ref="B5:B34" si="0">TEXT(A5,"aaa")</f>
-        <v>木</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>200</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>6700</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="13">
-        <v>10000</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="13">
-        <v>100</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG5" s="5">
-        <f>C35+E35+S35+U35+W35+Y35+AA35+AC35</f>
-        <v>148300</v>
-      </c>
-      <c r="AH5" s="10">
-        <f>D35+F35+T35+V35+X35+Z35+AB35+AD35</f>
-        <v>41170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A6" s="30">
-        <f t="shared" ref="A6:A34" si="1">A5+1</f>
-        <v>43329</v>
-      </c>
-      <c r="B6" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
       </c>
       <c r="C6" s="2">
         <v>1000</v>
       </c>
       <c r="D6" s="13">
-        <v>380</v>
+        <v>1300</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
       </c>
       <c r="F6" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
@@ -1665,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T6" s="13">
         <v>0</v>
@@ -1677,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="X6" s="13">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="Z6" s="13">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AA6" s="2">
         <v>0</v>
@@ -1698,170 +1925,295 @@
         <v>0</v>
       </c>
       <c r="AD6" s="13">
-        <v>370</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM6" s="5">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="自動予定"),C6:AJ36)</f>
+        <v>97100</v>
+      </c>
+      <c r="AN6" s="10">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="自動実績"),C6:AJ36)</f>
+        <v>6700</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A7" s="30">
-        <f t="shared" si="1"/>
-        <v>43330</v>
-      </c>
-      <c r="B7" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <f>A6+1</f>
+        <v>43328</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <f t="shared" ref="B7:B36" si="2">TEXT(A7,"aaa")</f>
+        <v>木</v>
       </c>
       <c r="C7" s="2">
         <v>1000</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
       <c r="E7" s="2">
         <v>200</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>6700</v>
+      </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
       <c r="Q7" s="2">
         <v>0</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
       <c r="S7" s="2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="T7" s="13">
-        <v>4820</v>
+        <v>10000</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="13"/>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
       <c r="W7" s="2">
         <v>0</v>
       </c>
-      <c r="X7" s="13"/>
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
       <c r="Y7" s="2">
         <v>0</v>
       </c>
-      <c r="Z7" s="13"/>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
       <c r="AA7" s="2">
         <v>0</v>
       </c>
-      <c r="AB7" s="14"/>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
       <c r="AC7" s="2">
         <v>0</v>
       </c>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="2"/>
-      <c r="AG7" s="21" t="s">
-        <v>31</v>
+      <c r="AD7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>100</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM7" s="5">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="手動予定"),C6:AJ36)</f>
+        <v>148300</v>
+      </c>
+      <c r="AN7" s="10">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="手動実績"),C6:AJ36)</f>
+        <v>41170</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A8" s="30">
-        <f t="shared" si="1"/>
-        <v>43331</v>
-      </c>
-      <c r="B8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <f t="shared" ref="A8:A36" si="3">A7+1</f>
+        <v>43329</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
       </c>
       <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13">
+        <v>380</v>
+      </c>
       <c r="E8" s="2">
         <v>200</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
       <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13"/>
+        <v>5000</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="13"/>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
-      <c r="R8" s="13"/>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
       <c r="S8" s="2">
         <v>0</v>
       </c>
-      <c r="T8" s="13"/>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="13"/>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
       <c r="W8" s="2">
         <v>0</v>
       </c>
-      <c r="X8" s="13"/>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
       <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="13"/>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
       <c r="AA8" s="2">
         <v>0</v>
       </c>
-      <c r="AB8" s="14"/>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG8" s="20">
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>370</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <f t="shared" si="3"/>
         <v>43330</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A9" s="30">
-        <f t="shared" si="1"/>
-        <v>43332</v>
-      </c>
-      <c r="B9" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
+      <c r="B9" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
       </c>
       <c r="C9" s="2">
         <v>1000</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
       <c r="E9" s="2">
         <v>200</v>
       </c>
@@ -1875,7 +2227,7 @@
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="2">
@@ -1891,11 +2243,13 @@
       </c>
       <c r="R9" s="13"/>
       <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="13"/>
+        <v>5100</v>
+      </c>
+      <c r="T9" s="13">
+        <v>4820</v>
+      </c>
       <c r="U9" s="2">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="V9" s="13"/>
       <c r="W9" s="2">
@@ -1914,23 +2268,31 @@
         <v>0</v>
       </c>
       <c r="AD9" s="13"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG9" s="19">
-        <f>SUMPRODUCT((A4:A34&lt;=$AG$8)*(C3:AD3="予定"),C4:AD34)</f>
-        <v>48900</v>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="2"/>
+      <c r="AM9" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
-        <f t="shared" si="1"/>
-        <v>43333</v>
-      </c>
-      <c r="B10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <f t="shared" si="3"/>
+        <v>43331</v>
+      </c>
+      <c r="B10" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
       </c>
       <c r="C10" s="2">
         <v>1000</v>
@@ -1957,7 +2319,7 @@
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="2">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="2">
@@ -1988,23 +2350,34 @@
         <v>0</v>
       </c>
       <c r="AD10" s="13"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG10" s="10">
-        <f>SUMPRODUCT((A4:A34&lt;=$AG$8)*(C3:AD3="実績"),C4:AD34)</f>
-        <v>47870</v>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>43330</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A11" s="30">
-        <f t="shared" si="1"/>
-        <v>43334</v>
-      </c>
-      <c r="B11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>水</v>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <f t="shared" si="3"/>
+        <v>43332</v>
+      </c>
+      <c r="B11" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
       </c>
       <c r="C11" s="2">
         <v>1000</v>
@@ -2023,7 +2396,7 @@
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L11" s="13"/>
       <c r="M11" s="2">
@@ -2043,7 +2416,7 @@
       </c>
       <c r="T11" s="13"/>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="V11" s="13"/>
       <c r="W11" s="2">
@@ -2062,23 +2435,35 @@
         <v>0</v>
       </c>
       <c r="AD11" s="13"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG11" s="19">
-        <f>AG9-AG10</f>
-        <v>1030</v>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM11" s="19">
+        <f>SUMPRODUCT((A6:A36&lt;=AM10)*(C5:AJ5="予定"),C6:AJ36)</f>
+        <v>48900</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A12" s="30">
-        <f t="shared" si="1"/>
-        <v>43335</v>
-      </c>
-      <c r="B12" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <f t="shared" si="3"/>
+        <v>43333</v>
+      </c>
+      <c r="B12" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
       </c>
       <c r="C12" s="2">
         <v>1000</v>
@@ -2105,7 +2490,7 @@
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="2">
-        <v>0</v>
+        <v>21500</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="2">
@@ -2136,19 +2521,35 @@
         <v>0</v>
       </c>
       <c r="AD12" s="13"/>
-      <c r="AE12" s="2"/>
-      <c r="AG12" s="21" t="s">
-        <v>34</v>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM12" s="10">
+        <f>SUMPRODUCT((A6:A36&lt;=AM10)*(C5:AJ5="実績"),C6:AJ36)</f>
+        <v>47870</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A13" s="30">
-        <f t="shared" si="1"/>
-        <v>43336</v>
-      </c>
-      <c r="B13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <f t="shared" si="3"/>
+        <v>43334</v>
+      </c>
+      <c r="B13" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
       </c>
       <c r="C13" s="2">
         <v>1000</v>
@@ -2163,7 +2564,7 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="2">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="2">
@@ -2206,22 +2607,35 @@
         <v>0</v>
       </c>
       <c r="AD13" s="13"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG13" s="31">
-        <v>43327</v>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM13" s="19">
+        <f>AM11-AM12</f>
+        <v>1030</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A14" s="30">
-        <f t="shared" si="1"/>
-        <v>43337</v>
-      </c>
-      <c r="B14" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <f t="shared" si="3"/>
+        <v>43335</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
       </c>
       <c r="C14" s="2">
         <v>1000</v>
@@ -2279,16 +2693,31 @@
         <v>0</v>
       </c>
       <c r="AD14" s="13"/>
-      <c r="AE14" s="2"/>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="2"/>
+      <c r="AM14" s="21" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A15" s="30">
-        <f t="shared" si="1"/>
-        <v>43338</v>
-      </c>
-      <c r="B15" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <f t="shared" si="3"/>
+        <v>43336</v>
+      </c>
+      <c r="B15" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
       </c>
       <c r="C15" s="2">
         <v>1000</v>
@@ -2303,7 +2732,7 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="2">
@@ -2339,26 +2768,41 @@
       </c>
       <c r="Z15" s="13"/>
       <c r="AA15" s="2">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="14"/>
       <c r="AC15" s="2">
         <v>0</v>
       </c>
       <c r="AD15" s="13"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="33" t="s">
-        <v>35</v>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM15" s="23">
+        <v>43327</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A16" s="30">
-        <f t="shared" si="1"/>
-        <v>43339</v>
-      </c>
-      <c r="B16" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <f t="shared" si="3"/>
+        <v>43337</v>
+      </c>
+      <c r="B16" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
       </c>
       <c r="C16" s="2">
         <v>1000</v>
@@ -2381,7 +2825,7 @@
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="2">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="2">
@@ -2389,7 +2833,7 @@
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="2">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="R16" s="13"/>
       <c r="S16" s="2">
@@ -2416,19 +2860,28 @@
         <v>0</v>
       </c>
       <c r="AD16" s="13"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="32" t="s">
-        <v>37</v>
-      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A17" s="30">
-        <f t="shared" si="1"/>
-        <v>43340</v>
-      </c>
-      <c r="B17" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
+        <f t="shared" si="3"/>
+        <v>43338</v>
+      </c>
+      <c r="B17" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
       </c>
       <c r="C17" s="2">
         <v>1000</v>
@@ -2479,26 +2932,38 @@
       </c>
       <c r="Z17" s="13"/>
       <c r="AA17" s="2">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="AB17" s="14"/>
       <c r="AC17" s="2">
         <v>0</v>
       </c>
       <c r="AD17" s="13"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="34" t="s">
-        <v>38</v>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="25" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A18" s="30">
-        <f t="shared" si="1"/>
-        <v>43341</v>
-      </c>
-      <c r="B18" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>水</v>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <f t="shared" si="3"/>
+        <v>43339</v>
+      </c>
+      <c r="B18" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
@@ -2521,7 +2986,7 @@
       </c>
       <c r="L18" s="13"/>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="2">
@@ -2529,7 +2994,7 @@
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>59000</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="2">
@@ -2556,19 +3021,31 @@
         <v>0</v>
       </c>
       <c r="AD18" s="13"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="34" t="s">
-        <v>39</v>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="24" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A19" s="30">
-        <f t="shared" si="1"/>
-        <v>43342</v>
-      </c>
-      <c r="B19" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <f t="shared" si="3"/>
+        <v>43340</v>
+      </c>
+      <c r="B19" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
       </c>
       <c r="C19" s="2">
         <v>1000</v>
@@ -2603,7 +3080,7 @@
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T19" s="13"/>
       <c r="U19" s="2">
@@ -2626,19 +3103,31 @@
         <v>0</v>
       </c>
       <c r="AD19" s="13"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="34" t="s">
-        <v>36</v>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="13"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="26" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A20" s="30">
-        <f t="shared" si="1"/>
-        <v>43343</v>
-      </c>
-      <c r="B20" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
+        <f t="shared" si="3"/>
+        <v>43341</v>
+      </c>
+      <c r="B20" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
       </c>
       <c r="C20" s="2">
         <v>1000</v>
@@ -2696,19 +3185,31 @@
         <v>0</v>
       </c>
       <c r="AD20" s="13"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="32" t="s">
-        <v>40</v>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="26" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A21" s="30">
-        <f t="shared" si="1"/>
-        <v>43344</v>
-      </c>
-      <c r="B21" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A21" s="22">
+        <f t="shared" si="3"/>
+        <v>43342</v>
+      </c>
+      <c r="B21" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
       </c>
       <c r="C21" s="2">
         <v>1000</v>
@@ -2743,7 +3244,7 @@
       </c>
       <c r="R21" s="13"/>
       <c r="S21" s="2">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="2">
@@ -2766,19 +3267,31 @@
         <v>0</v>
       </c>
       <c r="AD21" s="13"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="34" t="s">
-        <v>41</v>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A22" s="30">
-        <f t="shared" si="1"/>
-        <v>43345</v>
-      </c>
-      <c r="B22" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A22" s="22">
+        <f t="shared" si="3"/>
+        <v>43343</v>
+      </c>
+      <c r="B22" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
       </c>
       <c r="C22" s="2">
         <v>1000</v>
@@ -2836,19 +3349,31 @@
         <v>0</v>
       </c>
       <c r="AD22" s="13"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="34" t="s">
-        <v>42</v>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="26" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A23" s="30">
-        <f t="shared" si="1"/>
-        <v>43346</v>
-      </c>
-      <c r="B23" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A23" s="22">
+        <f t="shared" si="3"/>
+        <v>43344</v>
+      </c>
+      <c r="B23" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
       </c>
       <c r="C23" s="2">
         <v>1000</v>
@@ -2883,7 +3408,7 @@
       </c>
       <c r="R23" s="13"/>
       <c r="S23" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="2">
@@ -2906,16 +3431,31 @@
         <v>0</v>
       </c>
       <c r="AD23" s="13"/>
-      <c r="AE23" s="2"/>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A24" s="30">
-        <f t="shared" si="1"/>
-        <v>43347</v>
-      </c>
-      <c r="B24" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A24" s="22">
+        <f t="shared" si="3"/>
+        <v>43345</v>
+      </c>
+      <c r="B24" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
       </c>
       <c r="C24" s="2">
         <v>1000</v>
@@ -2973,16 +3513,28 @@
         <v>0</v>
       </c>
       <c r="AD24" s="13"/>
-      <c r="AE24" s="2"/>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A25" s="30">
-        <f t="shared" si="1"/>
-        <v>43348</v>
-      </c>
-      <c r="B25" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>水</v>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A25" s="22">
+        <f t="shared" si="3"/>
+        <v>43346</v>
+      </c>
+      <c r="B25" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
       </c>
       <c r="C25" s="2">
         <v>1000</v>
@@ -3017,7 +3569,7 @@
       </c>
       <c r="R25" s="13"/>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="2">
@@ -3040,16 +3592,31 @@
         <v>0</v>
       </c>
       <c r="AD25" s="13"/>
-      <c r="AE25" s="2"/>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A26" s="30">
-        <f t="shared" si="1"/>
-        <v>43349</v>
-      </c>
-      <c r="B26" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
+        <f t="shared" si="3"/>
+        <v>43347</v>
+      </c>
+      <c r="B26" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
       </c>
       <c r="C26" s="2">
         <v>1000</v>
@@ -3107,16 +3674,31 @@
         <v>0</v>
       </c>
       <c r="AD26" s="13"/>
-      <c r="AE26" s="2"/>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A27" s="30">
-        <f t="shared" si="1"/>
-        <v>43350</v>
-      </c>
-      <c r="B27" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <f t="shared" si="3"/>
+        <v>43348</v>
+      </c>
+      <c r="B27" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
       </c>
       <c r="C27" s="2">
         <v>1000</v>
@@ -3174,16 +3756,31 @@
         <v>0</v>
       </c>
       <c r="AD27" s="13"/>
-      <c r="AE27" s="2"/>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="26" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A28" s="30">
-        <f t="shared" si="1"/>
-        <v>43351</v>
-      </c>
-      <c r="B28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A28" s="22">
+        <f t="shared" si="3"/>
+        <v>43349</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
       </c>
       <c r="C28" s="2">
         <v>1000</v>
@@ -3218,7 +3815,7 @@
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="T28" s="13"/>
       <c r="U28" s="2">
@@ -3241,16 +3838,29 @@
         <v>0</v>
       </c>
       <c r="AD28" s="13"/>
-      <c r="AE28" s="2"/>
+      <c r="AE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="24"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A29" s="30">
-        <f t="shared" si="1"/>
-        <v>43352</v>
-      </c>
-      <c r="B29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A29" s="22">
+        <f t="shared" si="3"/>
+        <v>43350</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
       </c>
       <c r="C29" s="2">
         <v>1000</v>
@@ -3308,16 +3918,29 @@
         <v>0</v>
       </c>
       <c r="AD29" s="13"/>
-      <c r="AE29" s="2"/>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="26"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A30" s="30">
-        <f t="shared" si="1"/>
-        <v>43353</v>
-      </c>
-      <c r="B30" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A30" s="22">
+        <f t="shared" si="3"/>
+        <v>43351</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>土</v>
       </c>
       <c r="C30" s="2">
         <v>1000</v>
@@ -3352,7 +3975,7 @@
       </c>
       <c r="R30" s="13"/>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="2">
@@ -3375,16 +3998,29 @@
         <v>0</v>
       </c>
       <c r="AD30" s="13"/>
-      <c r="AE30" s="2"/>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="26"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A31" s="30">
-        <f t="shared" si="1"/>
-        <v>43354</v>
-      </c>
-      <c r="B31" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A31" s="22">
+        <f t="shared" si="3"/>
+        <v>43352</v>
+      </c>
+      <c r="B31" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>日</v>
       </c>
       <c r="C31" s="2">
         <v>1000</v>
@@ -3437,21 +4073,33 @@
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31" s="13"/>
+      <c r="AB31" s="14"/>
       <c r="AC31" s="2">
         <v>0</v>
       </c>
       <c r="AD31" s="13"/>
-      <c r="AE31" s="2"/>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A32" s="30">
-        <f t="shared" si="1"/>
-        <v>43355</v>
-      </c>
-      <c r="B32" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>水</v>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
+        <f t="shared" si="3"/>
+        <v>43353</v>
+      </c>
+      <c r="B32" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>月</v>
       </c>
       <c r="C32" s="2">
         <v>1000</v>
@@ -3504,21 +4152,33 @@
       <c r="AA32" s="2">
         <v>0</v>
       </c>
-      <c r="AB32" s="13"/>
+      <c r="AB32" s="14"/>
       <c r="AC32" s="2">
         <v>0</v>
       </c>
       <c r="AD32" s="13"/>
-      <c r="AE32" s="2"/>
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="2"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A33" s="30">
-        <f t="shared" si="1"/>
-        <v>43356</v>
-      </c>
-      <c r="B33" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A33" s="22">
+        <f t="shared" si="3"/>
+        <v>43354</v>
+      </c>
+      <c r="B33" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>火</v>
       </c>
       <c r="C33" s="2">
         <v>1000</v>
@@ -3576,16 +4236,28 @@
         <v>0</v>
       </c>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="2"/>
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="2"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A34" s="30">
-        <f t="shared" si="1"/>
-        <v>43357</v>
-      </c>
-      <c r="B34" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A34" s="22">
+        <f t="shared" si="3"/>
+        <v>43355</v>
+      </c>
+      <c r="B34" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>水</v>
       </c>
       <c r="C34" s="2">
         <v>1000</v>
@@ -3643,172 +4315,406 @@
         <v>0</v>
       </c>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="2"/>
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="2"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A35" s="22">
+        <f t="shared" si="3"/>
+        <v>43356</v>
+      </c>
+      <c r="B35" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>木</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="2">
+        <v>200</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13"/>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13"/>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13"/>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="13"/>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="13"/>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A36" s="22">
+        <f t="shared" si="3"/>
+        <v>43357</v>
+      </c>
+      <c r="B36" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>金</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="2">
+        <v>200</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13"/>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13"/>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="13"/>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="13"/>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A37" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="15">
-        <f t="shared" ref="C35:AD35" si="2">SUM(C4:C34)</f>
+      <c r="B37" s="29"/>
+      <c r="C37" s="15">
+        <f t="shared" ref="C37:AJ37" si="4">SUM(C6:C36)</f>
         <v>31000</v>
       </c>
-      <c r="D35" s="16">
-        <f t="shared" si="2"/>
+      <c r="D37" s="16">
+        <f t="shared" si="4"/>
         <v>1680</v>
       </c>
-      <c r="E35" s="15">
-        <f t="shared" si="2"/>
+      <c r="E37" s="15">
+        <f t="shared" si="4"/>
         <v>6200</v>
       </c>
-      <c r="F35" s="16">
-        <f t="shared" si="2"/>
+      <c r="F37" s="16">
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="G35" s="15">
-        <f t="shared" si="2"/>
+      <c r="G37" s="15">
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H35" s="16">
-        <f t="shared" si="2"/>
+      <c r="H37" s="16">
+        <f t="shared" si="4"/>
         <v>6700</v>
       </c>
-      <c r="I35" s="15">
-        <f t="shared" si="2"/>
+      <c r="I37" s="15">
+        <f t="shared" si="4"/>
         <v>4500</v>
       </c>
-      <c r="J35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="15">
-        <f t="shared" si="2"/>
+      <c r="J37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="L35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="15">
-        <f t="shared" si="2"/>
+      <c r="L37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
-      <c r="N35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="15">
-        <f t="shared" si="2"/>
+      <c r="N37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="4"/>
         <v>21500</v>
       </c>
-      <c r="P35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="15">
-        <f t="shared" si="2"/>
+      <c r="P37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <f t="shared" si="4"/>
         <v>59000</v>
       </c>
-      <c r="R35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="15">
-        <f t="shared" si="2"/>
+      <c r="R37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <f t="shared" si="4"/>
         <v>33100</v>
       </c>
-      <c r="T35" s="16">
-        <f t="shared" si="2"/>
+      <c r="T37" s="16">
+        <f t="shared" si="4"/>
         <v>14820</v>
       </c>
-      <c r="U35" s="15">
-        <f t="shared" si="2"/>
+      <c r="U37" s="15">
+        <f t="shared" si="4"/>
         <v>14000</v>
       </c>
-      <c r="V35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="15">
-        <f t="shared" si="2"/>
+      <c r="V37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <f t="shared" si="4"/>
         <v>9000</v>
       </c>
-      <c r="X35" s="16">
-        <f t="shared" si="2"/>
+      <c r="X37" s="16">
+        <f t="shared" si="4"/>
         <v>9000</v>
       </c>
-      <c r="Y35" s="15">
-        <f t="shared" si="2"/>
+      <c r="Y37" s="15">
+        <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="Z35" s="16">
-        <f t="shared" si="2"/>
+      <c r="Z37" s="16">
+        <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="AA35" s="15">
-        <f t="shared" si="2"/>
+      <c r="AA37" s="15">
+        <f t="shared" si="4"/>
         <v>40000</v>
       </c>
-      <c r="AB35" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="16">
-        <f t="shared" si="2"/>
+      <c r="AB37" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="15">
+        <f t="shared" ref="AC37:AH37" si="5">SUM(AC6:AC36)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="16">
+        <f t="shared" si="4"/>
         <v>470</v>
       </c>
-      <c r="AE35" s="17"/>
+      <c r="AK37" s="17"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G1:AE1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="W2:X2"/>
+  <mergeCells count="23">
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="G2:AK2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:A34">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>B4="日"</formula>
+  <conditionalFormatting sqref="A6:A36">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>B6="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>B4="土"</formula>
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>B6="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B34">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>B4="日"</formula>
+  <conditionalFormatting sqref="B6:B36">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>B6="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>B4="土"</formula>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>B6="土"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$AM$13&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 E3 G3 I3 K3 M3 O3 Q3 S3 U3 W3 Y3 AA3 AI3 AC3 AE3 AG3">
+      <formula1>自動手動</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kakeibo/家計簿ver1.2.xlsx
+++ b/kakeibo/家計簿ver1.2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>日常支出</t>
     <rPh sb="0" eb="2">
@@ -26,49 +26,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食費</t>
-    <rPh sb="0" eb="2">
-      <t>ショクヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生活用品</t>
-    <rPh sb="0" eb="4">
-      <t>セイカツヨウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インターネット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>化粧品</t>
-    <rPh sb="0" eb="3">
-      <t>ケショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>定期</t>
-    <rPh sb="0" eb="2">
-      <t>テイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケータイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>奨学金</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -87,45 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>交遊費</t>
-    <rPh sb="0" eb="3">
-      <t>コウユウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電気</t>
-    <rPh sb="0" eb="2">
-      <t>デンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水道</t>
-    <rPh sb="0" eb="2">
-      <t>スイドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生命保険</t>
-    <rPh sb="0" eb="4">
-      <t>セイメイホケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>家賃</t>
-    <rPh sb="0" eb="2">
-      <t>ヤチン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>特別支出</t>
     <rPh sb="0" eb="2">
       <t>トクベツ</t>
@@ -197,10 +115,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DVD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>本日日付</t>
     <rPh sb="0" eb="2">
       <t>ホンジツ</t>
@@ -250,13 +164,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雑誌</t>
-    <rPh sb="0" eb="2">
-      <t>ザッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -526,6 +433,20 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食費</t>
+    <rPh sb="0" eb="2">
+      <t>ショクヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活費</t>
+    <rPh sb="0" eb="3">
+      <t>セイカツヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -853,15 +774,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,9 +783,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,9 +790,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -895,21 +801,29 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -970,8 +884,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1272,7 +1186,7 @@
   <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1319,519 +1233,497 @@
     <col min="40" max="40" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="35" customFormat="1" ht="9" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="35" t="str">
+    <row r="1" spans="1:40" s="31" customFormat="1" ht="9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="31" t="str">
         <f>C3&amp;C5</f>
         <v>手動予定</v>
       </c>
-      <c r="D1" s="35" t="str">
+      <c r="D1" s="31" t="str">
         <f t="shared" ref="D1:AJ1" si="0">D3&amp;D5</f>
         <v>手動実績</v>
       </c>
-      <c r="E1" s="35" t="str">
+      <c r="E1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="F1" s="35" t="str">
+      <c r="F1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="G1" s="35" t="str">
+      <c r="G1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動予定</v>
       </c>
-      <c r="H1" s="35" t="str">
+      <c r="H1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動実績</v>
       </c>
-      <c r="I1" s="35" t="str">
+      <c r="I1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動予定</v>
       </c>
-      <c r="J1" s="35" t="str">
+      <c r="J1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動実績</v>
       </c>
-      <c r="K1" s="35" t="str">
+      <c r="K1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動予定</v>
       </c>
-      <c r="L1" s="35" t="str">
+      <c r="L1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動実績</v>
       </c>
-      <c r="M1" s="35" t="str">
+      <c r="M1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動予定</v>
       </c>
-      <c r="N1" s="35" t="str">
+      <c r="N1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動実績</v>
       </c>
-      <c r="O1" s="35" t="str">
+      <c r="O1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動予定</v>
       </c>
-      <c r="P1" s="35" t="str">
+      <c r="P1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動実績</v>
       </c>
-      <c r="Q1" s="35" t="str">
+      <c r="Q1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動予定</v>
       </c>
-      <c r="R1" s="35" t="str">
+      <c r="R1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>自動実績</v>
       </c>
-      <c r="S1" s="35" t="str">
+      <c r="S1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="T1" s="35" t="str">
+      <c r="T1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="U1" s="35" t="str">
+      <c r="U1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="V1" s="35" t="str">
+      <c r="V1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="W1" s="35" t="str">
+      <c r="W1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="X1" s="35" t="str">
+      <c r="X1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="Y1" s="35" t="str">
+      <c r="Y1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="Z1" s="35" t="str">
+      <c r="Z1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="AA1" s="35" t="str">
+      <c r="AA1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="AB1" s="35" t="str">
+      <c r="AB1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="AC1" s="35" t="str">
+      <c r="AC1" s="31" t="str">
         <f t="shared" ref="AC1:AH1" si="1">AC3&amp;AC5</f>
         <v>手動予定</v>
       </c>
-      <c r="AD1" s="35" t="str">
+      <c r="AD1" s="31" t="str">
         <f t="shared" si="1"/>
         <v>手動実績</v>
       </c>
-      <c r="AE1" s="35" t="str">
+      <c r="AE1" s="31" t="str">
         <f t="shared" si="1"/>
         <v>手動予定</v>
       </c>
-      <c r="AF1" s="35" t="str">
+      <c r="AF1" s="31" t="str">
         <f t="shared" si="1"/>
         <v>手動実績</v>
       </c>
-      <c r="AG1" s="35" t="str">
+      <c r="AG1" s="31" t="str">
         <f t="shared" si="1"/>
         <v>手動予定</v>
       </c>
-      <c r="AH1" s="35" t="str">
+      <c r="AH1" s="31" t="str">
         <f t="shared" si="1"/>
         <v>手動実績</v>
       </c>
-      <c r="AI1" s="35" t="str">
+      <c r="AI1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動予定</v>
       </c>
-      <c r="AJ1" s="35" t="str">
+      <c r="AJ1" s="31" t="str">
         <f t="shared" si="0"/>
         <v>手動実績</v>
       </c>
-      <c r="AK1" s="35" t="str">
+      <c r="AK1" s="31" t="str">
         <f>AK3&amp;AK5</f>
         <v>詳細</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="33"/>
+      <c r="A2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="41"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="31" t="str">
+      <c r="A3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28" t="str">
         <f>C3</f>
         <v>手動</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="31" t="str">
+      <c r="E3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="28" t="str">
         <f>E3</f>
         <v>手動</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="31" t="str">
+      <c r="G3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="28" t="str">
         <f>G3</f>
         <v>自動</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="31" t="str">
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="28" t="str">
         <f>I3</f>
         <v>自動</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="31" t="str">
+      <c r="K3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="28" t="str">
         <f>K3</f>
         <v>自動</v>
       </c>
-      <c r="M3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="31" t="str">
+      <c r="M3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="28" t="str">
         <f>M3</f>
         <v>自動</v>
       </c>
-      <c r="O3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="31" t="str">
+      <c r="O3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="28" t="str">
         <f>O3</f>
         <v>自動</v>
       </c>
-      <c r="Q3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="31" t="str">
+      <c r="Q3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="28" t="str">
         <f>Q3</f>
         <v>自動</v>
       </c>
-      <c r="S3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="31" t="str">
+      <c r="S3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="28" t="str">
         <f>S3</f>
         <v>手動</v>
       </c>
-      <c r="U3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="31" t="str">
+      <c r="U3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="28" t="str">
         <f>U3</f>
         <v>手動</v>
       </c>
-      <c r="W3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" s="31" t="str">
+      <c r="W3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="28" t="str">
         <f>W3</f>
         <v>手動</v>
       </c>
-      <c r="Y3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" s="31" t="str">
+      <c r="Y3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="28" t="str">
         <f>Y3</f>
         <v>手動</v>
       </c>
-      <c r="AA3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="31" t="str">
+      <c r="AA3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="28" t="str">
         <f>AA3</f>
         <v>手動</v>
       </c>
-      <c r="AC3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" s="31" t="str">
+      <c r="AC3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="28" t="str">
         <f>AC3</f>
         <v>手動</v>
       </c>
-      <c r="AE3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF3" s="31" t="str">
+      <c r="AE3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="28" t="str">
         <f>AE3</f>
         <v>手動</v>
       </c>
-      <c r="AG3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" s="31" t="str">
+      <c r="AG3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="28" t="str">
         <f>AG3</f>
         <v>手動</v>
       </c>
-      <c r="AI3" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ3" s="32" t="str">
+      <c r="AI3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="29" t="str">
         <f>AI3</f>
         <v>手動</v>
       </c>
-      <c r="AK3" s="34"/>
+      <c r="AK3" s="30"/>
     </row>
     <row r="4" spans="1:40" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37" t="s">
+      <c r="A4" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37" t="s">
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="39"/>
+      <c r="AM4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="41"/>
-      <c r="AM4" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="AN4" s="10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AB5" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AF5" s="7" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AG5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AH5" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AM5" s="11">
         <f>AM6+AM7</f>
-        <v>245400</v>
+        <v>37200</v>
       </c>
       <c r="AN5" s="12">
         <f>AN6+AN7</f>
-        <v>47870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.15">
@@ -1847,13 +1739,13 @@
         <v>1000</v>
       </c>
       <c r="D6" s="13">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
       </c>
       <c r="F6" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1892,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T6" s="13">
         <v>0</v>
@@ -1904,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="X6" s="13">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="13">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="2">
         <v>0</v>
@@ -1947,15 +1839,15 @@
       </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AM6" s="5">
         <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="自動予定"),C6:AJ36)</f>
-        <v>97100</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="10">
         <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="自動実績"),C6:AJ36)</f>
-        <v>6700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.15">
@@ -1983,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="13">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -2019,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="13">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2067,21 +1959,19 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="13">
-        <v>100</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2"/>
       <c r="AL7" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AM7" s="5">
         <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="手動予定"),C6:AJ36)</f>
-        <v>148300</v>
+        <v>37200</v>
       </c>
       <c r="AN7" s="10">
         <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="手動実績"),C6:AJ36)</f>
-        <v>41170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.15">
@@ -2097,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="D8" s="13">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>200</v>
@@ -2106,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
         <v>0</v>
@@ -2193,11 +2083,9 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="13">
-        <v>370</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A9" s="22">
@@ -2217,53 +2105,75 @@
       <c r="E9" s="2">
         <v>200</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="13"/>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="R9" s="13"/>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
       <c r="S9" s="2">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="13">
-        <v>4820</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="13"/>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
-      <c r="X9" s="13"/>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
       <c r="Y9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="13"/>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
       <c r="AA9" s="2">
         <v>0</v>
       </c>
-      <c r="AB9" s="14"/>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
       <c r="AC9" s="2">
         <v>0</v>
       </c>
@@ -2279,10 +2189,12 @@
       <c r="AI9" s="2">
         <v>0</v>
       </c>
-      <c r="AJ9" s="13"/>
+      <c r="AJ9" s="13">
+        <v>0</v>
+      </c>
       <c r="AK9" s="2"/>
       <c r="AM9" s="21" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.15">
@@ -2297,55 +2209,81 @@
       <c r="C10" s="2">
         <v>1000</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
       <c r="E10" s="2">
         <v>200</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="13"/>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
       <c r="Q10" s="2">
         <v>0</v>
       </c>
-      <c r="R10" s="13"/>
+      <c r="R10" s="13">
+        <v>0</v>
+      </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
-      <c r="T10" s="13"/>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="13"/>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
-      <c r="X10" s="13"/>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
       <c r="Y10" s="2">
         <v>0</v>
       </c>
-      <c r="Z10" s="13"/>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
       <c r="AA10" s="2">
         <v>0</v>
       </c>
-      <c r="AB10" s="14"/>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
       <c r="AC10" s="2">
         <v>0</v>
       </c>
@@ -2361,10 +2299,12 @@
       <c r="AI10" s="2">
         <v>0</v>
       </c>
-      <c r="AJ10" s="13"/>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AM10" s="20">
         <v>43330</v>
@@ -2382,55 +2322,81 @@
       <c r="C11" s="2">
         <v>1000</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
       <c r="E11" s="2">
         <v>200</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="13"/>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
       <c r="K11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="L11" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
       <c r="Q11" s="2">
         <v>0</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
       <c r="S11" s="2">
         <v>0</v>
       </c>
-      <c r="T11" s="13"/>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
       <c r="U11" s="2">
-        <v>14000</v>
-      </c>
-      <c r="V11" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="X11" s="13"/>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
       <c r="Y11" s="2">
         <v>0</v>
       </c>
-      <c r="Z11" s="13"/>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
       <c r="AA11" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="14"/>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
       <c r="AC11" s="2">
         <v>0</v>
       </c>
@@ -2446,14 +2412,16 @@
       <c r="AI11" s="2">
         <v>0</v>
       </c>
-      <c r="AJ11" s="13"/>
+      <c r="AJ11" s="13">
+        <v>0</v>
+      </c>
       <c r="AK11" s="18"/>
       <c r="AL11" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AM11" s="19">
         <f>SUMPRODUCT((A6:A36&lt;=AM10)*(C5:AJ5="予定"),C6:AJ36)</f>
-        <v>48900</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.15">
@@ -2468,55 +2436,81 @@
       <c r="C12" s="2">
         <v>1000</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
       <c r="E12" s="2">
         <v>200</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="13"/>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
       <c r="O12" s="2">
-        <v>21500</v>
-      </c>
-      <c r="P12" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
       <c r="Q12" s="2">
         <v>0</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
       <c r="S12" s="2">
         <v>0</v>
       </c>
-      <c r="T12" s="13"/>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12" s="13"/>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
       <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="X12" s="13"/>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
       <c r="Y12" s="2">
         <v>0</v>
       </c>
-      <c r="Z12" s="13"/>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
       <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AB12" s="14"/>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
       <c r="AC12" s="2">
         <v>0</v>
       </c>
@@ -2532,14 +2526,16 @@
       <c r="AI12" s="2">
         <v>0</v>
       </c>
-      <c r="AJ12" s="13"/>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
       <c r="AK12" s="18"/>
       <c r="AL12" s="19" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AM12" s="10">
         <f>SUMPRODUCT((A6:A36&lt;=AM10)*(C5:AJ5="実績"),C6:AJ36)</f>
-        <v>47870</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.15">
@@ -2554,55 +2550,81 @@
       <c r="C13" s="2">
         <v>1000</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
       <c r="E13" s="2">
         <v>200</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
-      <c r="J13" s="13"/>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="13"/>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
       <c r="Q13" s="2">
         <v>0</v>
       </c>
-      <c r="R13" s="13"/>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
-      <c r="T13" s="13"/>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="V13" s="13"/>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
       <c r="W13" s="2">
         <v>0</v>
       </c>
-      <c r="X13" s="13"/>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
       <c r="Y13" s="2">
         <v>0</v>
       </c>
-      <c r="Z13" s="13"/>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
       <c r="AA13" s="2">
         <v>0</v>
       </c>
-      <c r="AB13" s="14"/>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
       <c r="AC13" s="2">
         <v>0</v>
       </c>
@@ -2618,14 +2640,16 @@
       <c r="AI13" s="2">
         <v>0</v>
       </c>
-      <c r="AJ13" s="13"/>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="19" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AM13" s="19">
         <f>AM11-AM12</f>
-        <v>1030</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.15">
@@ -2640,55 +2664,81 @@
       <c r="C14" s="2">
         <v>1000</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
       <c r="E14" s="2">
         <v>200</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="13"/>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="13"/>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
       <c r="Q14" s="2">
         <v>0</v>
       </c>
-      <c r="R14" s="13"/>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
       <c r="S14" s="2">
         <v>0</v>
       </c>
-      <c r="T14" s="13"/>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="V14" s="13"/>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
       <c r="W14" s="2">
         <v>0</v>
       </c>
-      <c r="X14" s="13"/>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
       <c r="Y14" s="2">
         <v>0</v>
       </c>
-      <c r="Z14" s="13"/>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" s="14"/>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
       <c r="AC14" s="2">
         <v>0</v>
       </c>
@@ -2704,10 +2754,12 @@
       <c r="AI14" s="2">
         <v>0</v>
       </c>
-      <c r="AJ14" s="13"/>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
       <c r="AK14" s="2"/>
       <c r="AM14" s="21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.15">
@@ -2722,55 +2774,81 @@
       <c r="C15" s="2">
         <v>1000</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
       <c r="E15" s="2">
         <v>200</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
       <c r="G15" s="2">
         <v>0</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
       <c r="I15" s="2">
-        <v>4500</v>
-      </c>
-      <c r="J15" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="L15" s="13"/>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="13"/>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
       <c r="Q15" s="2">
         <v>0</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
       <c r="S15" s="2">
         <v>0</v>
       </c>
-      <c r="T15" s="13"/>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
-      <c r="V15" s="13"/>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
       <c r="W15" s="2">
         <v>0</v>
       </c>
-      <c r="X15" s="13"/>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
       <c r="Y15" s="2">
         <v>0</v>
       </c>
-      <c r="Z15" s="13"/>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15" s="14"/>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
       <c r="AC15" s="2">
         <v>0</v>
       </c>
@@ -2786,10 +2864,12 @@
       <c r="AI15" s="2">
         <v>0</v>
       </c>
-      <c r="AJ15" s="13"/>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="19" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="AM15" s="23">
         <v>43327</v>
@@ -2807,55 +2887,81 @@
       <c r="C16" s="2">
         <v>1000</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
       <c r="E16" s="2">
         <v>200</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
       <c r="G16" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
       <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="13"/>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
       <c r="S16" s="2">
         <v>0</v>
       </c>
-      <c r="T16" s="13"/>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
-      <c r="V16" s="13"/>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
-      <c r="X16" s="13"/>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
       <c r="Y16" s="2">
         <v>0</v>
       </c>
-      <c r="Z16" s="13"/>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
       <c r="AA16" s="2">
         <v>0</v>
       </c>
-      <c r="AB16" s="14"/>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
       <c r="AC16" s="2">
         <v>0</v>
       </c>
@@ -2871,7 +2977,9 @@
       <c r="AI16" s="2">
         <v>0</v>
       </c>
-      <c r="AJ16" s="13"/>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
       <c r="AK16" s="2"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.15">
@@ -2886,55 +2994,81 @@
       <c r="C17" s="2">
         <v>1000</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
       <c r="E17" s="2">
         <v>200</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="13"/>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="L17" s="13"/>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="13"/>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
       <c r="Q17" s="2">
         <v>0</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
       <c r="S17" s="2">
         <v>0</v>
       </c>
-      <c r="T17" s="13"/>
+      <c r="T17" s="13">
+        <v>0</v>
+      </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
-      <c r="V17" s="13"/>
+      <c r="V17" s="13">
+        <v>0</v>
+      </c>
       <c r="W17" s="2">
         <v>0</v>
       </c>
-      <c r="X17" s="13"/>
+      <c r="X17" s="13">
+        <v>0</v>
+      </c>
       <c r="Y17" s="2">
         <v>0</v>
       </c>
-      <c r="Z17" s="13"/>
+      <c r="Z17" s="13">
+        <v>0</v>
+      </c>
       <c r="AA17" s="2">
-        <v>40000</v>
-      </c>
-      <c r="AB17" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>0</v>
+      </c>
       <c r="AC17" s="2">
         <v>0</v>
       </c>
@@ -2950,10 +3084,12 @@
       <c r="AI17" s="2">
         <v>0</v>
       </c>
-      <c r="AJ17" s="13"/>
+      <c r="AJ17" s="13">
+        <v>0</v>
+      </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="25" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.15">
@@ -2968,55 +3104,81 @@
       <c r="C18" s="2">
         <v>1000</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
       <c r="E18" s="2">
         <v>200</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
       <c r="M18" s="2">
-        <v>4100</v>
-      </c>
-      <c r="N18" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
       <c r="Q18" s="2">
-        <v>59000</v>
-      </c>
-      <c r="R18" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
       <c r="S18" s="2">
         <v>0</v>
       </c>
-      <c r="T18" s="13"/>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
-      <c r="V18" s="13"/>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
       <c r="W18" s="2">
         <v>0</v>
       </c>
-      <c r="X18" s="13"/>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
       <c r="Y18" s="2">
         <v>0</v>
       </c>
-      <c r="Z18" s="13"/>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
       <c r="AA18" s="2">
         <v>0</v>
       </c>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
       <c r="AC18" s="2">
         <v>0</v>
       </c>
@@ -3032,10 +3194,12 @@
       <c r="AI18" s="2">
         <v>0</v>
       </c>
-      <c r="AJ18" s="13"/>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
       <c r="AK18" s="2"/>
       <c r="AL18" s="24" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.15">
@@ -3050,55 +3214,81 @@
       <c r="C19" s="2">
         <v>1000</v>
       </c>
-      <c r="D19" s="13"/>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
       <c r="E19" s="2">
         <v>200</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="13"/>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="13"/>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="13"/>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
-      <c r="R19" s="13"/>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
-      <c r="T19" s="13"/>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="13"/>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
       <c r="W19" s="2">
         <v>0</v>
       </c>
-      <c r="X19" s="13"/>
+      <c r="X19" s="13">
+        <v>0</v>
+      </c>
       <c r="Y19" s="2">
         <v>0</v>
       </c>
-      <c r="Z19" s="13"/>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
       <c r="AA19" s="2">
         <v>0</v>
       </c>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
       <c r="AC19" s="2">
         <v>0</v>
       </c>
@@ -3114,10 +3304,12 @@
       <c r="AI19" s="2">
         <v>0</v>
       </c>
-      <c r="AJ19" s="13"/>
+      <c r="AJ19" s="13">
+        <v>0</v>
+      </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="26" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.15">
@@ -3132,55 +3324,81 @@
       <c r="C20" s="2">
         <v>1000</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
       <c r="E20" s="2">
         <v>200</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
       <c r="G20" s="2">
         <v>0</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="13"/>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
       <c r="K20" s="2">
         <v>0</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="13"/>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="13"/>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
       <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="13"/>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
       <c r="S20" s="2">
         <v>0</v>
       </c>
-      <c r="T20" s="13"/>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
-      <c r="V20" s="13"/>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="13"/>
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
       <c r="Y20" s="2">
         <v>0</v>
       </c>
-      <c r="Z20" s="13"/>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20" s="14"/>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
       <c r="AC20" s="2">
         <v>0</v>
       </c>
@@ -3196,10 +3414,12 @@
       <c r="AI20" s="2">
         <v>0</v>
       </c>
-      <c r="AJ20" s="13"/>
+      <c r="AJ20" s="13">
+        <v>0</v>
+      </c>
       <c r="AK20" s="2"/>
       <c r="AL20" s="26" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.15">
@@ -3214,55 +3434,81 @@
       <c r="C21" s="2">
         <v>1000</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
       <c r="E21" s="2">
         <v>200</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
       <c r="G21" s="2">
         <v>0</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="13"/>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="13"/>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
       <c r="Q21" s="2">
         <v>0</v>
       </c>
-      <c r="R21" s="13"/>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
       <c r="S21" s="2">
-        <v>10000</v>
-      </c>
-      <c r="T21" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
-      <c r="V21" s="13"/>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
       <c r="W21" s="2">
         <v>0</v>
       </c>
-      <c r="X21" s="13"/>
+      <c r="X21" s="13">
+        <v>0</v>
+      </c>
       <c r="Y21" s="2">
         <v>0</v>
       </c>
-      <c r="Z21" s="13"/>
+      <c r="Z21" s="13">
+        <v>0</v>
+      </c>
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AB21" s="14"/>
+      <c r="AB21" s="13">
+        <v>0</v>
+      </c>
       <c r="AC21" s="2">
         <v>0</v>
       </c>
@@ -3278,10 +3524,12 @@
       <c r="AI21" s="2">
         <v>0</v>
       </c>
-      <c r="AJ21" s="13"/>
+      <c r="AJ21" s="13">
+        <v>0</v>
+      </c>
       <c r="AK21" s="2"/>
       <c r="AL21" s="26" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.15">
@@ -3296,55 +3544,81 @@
       <c r="C22" s="2">
         <v>1000</v>
       </c>
-      <c r="D22" s="13"/>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
       <c r="E22" s="2">
         <v>200</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
-      <c r="J22" s="13"/>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
       <c r="K22" s="2">
         <v>0</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="13"/>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="13"/>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
       <c r="Q22" s="2">
         <v>0</v>
       </c>
-      <c r="R22" s="13"/>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
       <c r="S22" s="2">
         <v>0</v>
       </c>
-      <c r="T22" s="13"/>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
-      <c r="V22" s="13"/>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
       <c r="W22" s="2">
         <v>0</v>
       </c>
-      <c r="X22" s="13"/>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
       <c r="Y22" s="2">
         <v>0</v>
       </c>
-      <c r="Z22" s="13"/>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
       <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" s="14"/>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
       <c r="AC22" s="2">
         <v>0</v>
       </c>
@@ -3360,10 +3634,12 @@
       <c r="AI22" s="2">
         <v>0</v>
       </c>
-      <c r="AJ22" s="13"/>
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="26" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.15">
@@ -3378,55 +3654,81 @@
       <c r="C23" s="2">
         <v>1000</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
       <c r="E23" s="2">
         <v>200</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
       <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="13"/>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
       <c r="K23" s="2">
         <v>0</v>
       </c>
-      <c r="L23" s="13"/>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="13"/>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="13"/>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
       <c r="S23" s="2">
         <v>0</v>
       </c>
-      <c r="T23" s="13"/>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
-      <c r="V23" s="13"/>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
       <c r="W23" s="2">
         <v>0</v>
       </c>
-      <c r="X23" s="13"/>
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
       <c r="Y23" s="2">
         <v>0</v>
       </c>
-      <c r="Z23" s="13"/>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" s="14"/>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
       <c r="AC23" s="2">
         <v>0</v>
       </c>
@@ -3442,10 +3744,12 @@
       <c r="AI23" s="2">
         <v>0</v>
       </c>
-      <c r="AJ23" s="13"/>
+      <c r="AJ23" s="13">
+        <v>0</v>
+      </c>
       <c r="AK23" s="2"/>
       <c r="AL23" s="26" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.15">
@@ -3460,55 +3764,81 @@
       <c r="C24" s="2">
         <v>1000</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
       <c r="E24" s="2">
         <v>200</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
       <c r="G24" s="2">
         <v>0</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
       <c r="K24" s="2">
         <v>0</v>
       </c>
-      <c r="L24" s="13"/>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="13"/>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
       <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="13"/>
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
       <c r="S24" s="2">
         <v>0</v>
       </c>
-      <c r="T24" s="13"/>
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
-      <c r="V24" s="13"/>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
       <c r="W24" s="2">
         <v>0</v>
       </c>
-      <c r="X24" s="13"/>
+      <c r="X24" s="13">
+        <v>0</v>
+      </c>
       <c r="Y24" s="2">
         <v>0</v>
       </c>
-      <c r="Z24" s="13"/>
+      <c r="Z24" s="13">
+        <v>0</v>
+      </c>
       <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" s="14"/>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
       <c r="AC24" s="2">
         <v>0</v>
       </c>
@@ -3524,7 +3854,9 @@
       <c r="AI24" s="2">
         <v>0</v>
       </c>
-      <c r="AJ24" s="13"/>
+      <c r="AJ24" s="13">
+        <v>0</v>
+      </c>
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.15">
@@ -3539,55 +3871,81 @@
       <c r="C25" s="2">
         <v>1000</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
       <c r="E25" s="2">
         <v>200</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
       <c r="G25" s="2">
         <v>0</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
       <c r="I25" s="2">
         <v>0</v>
       </c>
-      <c r="J25" s="13"/>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
-      <c r="L25" s="13"/>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="13"/>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="13"/>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
       <c r="Q25" s="2">
         <v>0</v>
       </c>
-      <c r="R25" s="13"/>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
       <c r="S25" s="2">
-        <v>4000</v>
-      </c>
-      <c r="T25" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
-      <c r="V25" s="13"/>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
       <c r="W25" s="2">
         <v>0</v>
       </c>
-      <c r="X25" s="13"/>
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
       <c r="Y25" s="2">
         <v>0</v>
       </c>
-      <c r="Z25" s="13"/>
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
       <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AB25" s="14"/>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
       <c r="AC25" s="2">
         <v>0</v>
       </c>
@@ -3603,10 +3961,12 @@
       <c r="AI25" s="2">
         <v>0</v>
       </c>
-      <c r="AJ25" s="13"/>
+      <c r="AJ25" s="13">
+        <v>0</v>
+      </c>
       <c r="AK25" s="2"/>
       <c r="AL25" s="24" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.15">
@@ -3621,55 +3981,81 @@
       <c r="C26" s="2">
         <v>1000</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
       <c r="E26" s="2">
         <v>200</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
-      <c r="L26" s="13"/>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="13"/>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
-      <c r="P26" s="13"/>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
       <c r="Q26" s="2">
         <v>0</v>
       </c>
-      <c r="R26" s="13"/>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
       <c r="S26" s="2">
         <v>0</v>
       </c>
-      <c r="T26" s="13"/>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
-      <c r="V26" s="13"/>
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
       <c r="W26" s="2">
         <v>0</v>
       </c>
-      <c r="X26" s="13"/>
+      <c r="X26" s="13">
+        <v>0</v>
+      </c>
       <c r="Y26" s="2">
         <v>0</v>
       </c>
-      <c r="Z26" s="13"/>
+      <c r="Z26" s="13">
+        <v>0</v>
+      </c>
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" s="14"/>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
       <c r="AC26" s="2">
         <v>0</v>
       </c>
@@ -3685,10 +4071,12 @@
       <c r="AI26" s="2">
         <v>0</v>
       </c>
-      <c r="AJ26" s="13"/>
+      <c r="AJ26" s="13">
+        <v>0</v>
+      </c>
       <c r="AK26" s="2"/>
       <c r="AL26" s="26" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.15">
@@ -3703,55 +4091,81 @@
       <c r="C27" s="2">
         <v>1000</v>
       </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
       <c r="E27" s="2">
         <v>200</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="13"/>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
       <c r="K27" s="2">
         <v>0</v>
       </c>
-      <c r="L27" s="13"/>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
-      <c r="N27" s="13"/>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
-      <c r="P27" s="13"/>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
-      <c r="R27" s="13"/>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
-      <c r="T27" s="13"/>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
       <c r="U27" s="2">
         <v>0</v>
       </c>
-      <c r="V27" s="13"/>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
       <c r="W27" s="2">
         <v>0</v>
       </c>
-      <c r="X27" s="13"/>
+      <c r="X27" s="13">
+        <v>0</v>
+      </c>
       <c r="Y27" s="2">
         <v>0</v>
       </c>
-      <c r="Z27" s="13"/>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="14"/>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
       <c r="AC27" s="2">
         <v>0</v>
       </c>
@@ -3767,10 +4181,12 @@
       <c r="AI27" s="2">
         <v>0</v>
       </c>
-      <c r="AJ27" s="13"/>
+      <c r="AJ27" s="13">
+        <v>0</v>
+      </c>
       <c r="AK27" s="2"/>
       <c r="AL27" s="26" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.15">
@@ -3785,55 +4201,81 @@
       <c r="C28" s="2">
         <v>1000</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
       <c r="E28" s="2">
         <v>200</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="13"/>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
-      <c r="L28" s="13"/>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="13"/>
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
-      <c r="P28" s="13"/>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
       <c r="Q28" s="2">
         <v>0</v>
       </c>
-      <c r="R28" s="13"/>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
       <c r="S28" s="2">
         <v>0</v>
       </c>
-      <c r="T28" s="13"/>
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
-      <c r="V28" s="13"/>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
-      <c r="X28" s="13"/>
+      <c r="X28" s="13">
+        <v>0</v>
+      </c>
       <c r="Y28" s="2">
         <v>0</v>
       </c>
-      <c r="Z28" s="13"/>
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
       <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="AB28" s="14"/>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
       <c r="AC28" s="2">
         <v>0</v>
       </c>
@@ -3849,7 +4291,9 @@
       <c r="AI28" s="2">
         <v>0</v>
       </c>
-      <c r="AJ28" s="13"/>
+      <c r="AJ28" s="13">
+        <v>0</v>
+      </c>
       <c r="AK28" s="2"/>
       <c r="AL28" s="24"/>
     </row>
@@ -3865,55 +4309,81 @@
       <c r="C29" s="2">
         <v>1000</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
       <c r="E29" s="2">
         <v>200</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
       <c r="G29" s="2">
         <v>0</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="13"/>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
-      <c r="L29" s="13"/>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="13"/>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
-      <c r="P29" s="13"/>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
       <c r="Q29" s="2">
         <v>0</v>
       </c>
-      <c r="R29" s="13"/>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
       <c r="S29" s="2">
         <v>0</v>
       </c>
-      <c r="T29" s="13"/>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
-      <c r="V29" s="13"/>
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
       <c r="W29" s="2">
         <v>0</v>
       </c>
-      <c r="X29" s="13"/>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
       <c r="Y29" s="2">
         <v>0</v>
       </c>
-      <c r="Z29" s="13"/>
+      <c r="Z29" s="13">
+        <v>0</v>
+      </c>
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AB29" s="14"/>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
       <c r="AC29" s="2">
         <v>0</v>
       </c>
@@ -3929,7 +4399,9 @@
       <c r="AI29" s="2">
         <v>0</v>
       </c>
-      <c r="AJ29" s="13"/>
+      <c r="AJ29" s="13">
+        <v>0</v>
+      </c>
       <c r="AK29" s="2"/>
       <c r="AL29" s="26"/>
     </row>
@@ -3945,55 +4417,81 @@
       <c r="C30" s="2">
         <v>1000</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
       <c r="E30" s="2">
         <v>200</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="13"/>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
-      <c r="L30" s="13"/>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="13"/>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
-      <c r="P30" s="13"/>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
       <c r="Q30" s="2">
         <v>0</v>
       </c>
-      <c r="R30" s="13"/>
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
       <c r="S30" s="2">
-        <v>4000</v>
-      </c>
-      <c r="T30" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="13"/>
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
       <c r="W30" s="2">
         <v>0</v>
       </c>
-      <c r="X30" s="13"/>
+      <c r="X30" s="13">
+        <v>0</v>
+      </c>
       <c r="Y30" s="2">
         <v>0</v>
       </c>
-      <c r="Z30" s="13"/>
+      <c r="Z30" s="13">
+        <v>0</v>
+      </c>
       <c r="AA30" s="2">
         <v>0</v>
       </c>
-      <c r="AB30" s="14"/>
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
       <c r="AC30" s="2">
         <v>0</v>
       </c>
@@ -4009,7 +4507,9 @@
       <c r="AI30" s="2">
         <v>0</v>
       </c>
-      <c r="AJ30" s="13"/>
+      <c r="AJ30" s="13">
+        <v>0</v>
+      </c>
       <c r="AK30" s="2"/>
       <c r="AL30" s="26"/>
     </row>
@@ -4025,55 +4525,81 @@
       <c r="C31" s="2">
         <v>1000</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
       <c r="E31" s="2">
         <v>200</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="13"/>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
-      <c r="L31" s="13"/>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
       <c r="M31" s="2">
         <v>0</v>
       </c>
-      <c r="N31" s="13"/>
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
       <c r="O31" s="2">
         <v>0</v>
       </c>
-      <c r="P31" s="13"/>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
       <c r="Q31" s="2">
         <v>0</v>
       </c>
-      <c r="R31" s="13"/>
+      <c r="R31" s="13">
+        <v>0</v>
+      </c>
       <c r="S31" s="2">
         <v>0</v>
       </c>
-      <c r="T31" s="13"/>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="V31" s="13"/>
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
       <c r="W31" s="2">
         <v>0</v>
       </c>
-      <c r="X31" s="13"/>
+      <c r="X31" s="13">
+        <v>0</v>
+      </c>
       <c r="Y31" s="2">
         <v>0</v>
       </c>
-      <c r="Z31" s="13"/>
+      <c r="Z31" s="13">
+        <v>0</v>
+      </c>
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31" s="14"/>
+      <c r="AB31" s="13">
+        <v>0</v>
+      </c>
       <c r="AC31" s="2">
         <v>0</v>
       </c>
@@ -4089,7 +4615,9 @@
       <c r="AI31" s="2">
         <v>0</v>
       </c>
-      <c r="AJ31" s="13"/>
+      <c r="AJ31" s="13">
+        <v>0</v>
+      </c>
       <c r="AK31" s="2"/>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.15">
@@ -4104,55 +4632,81 @@
       <c r="C32" s="2">
         <v>1000</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
       <c r="E32" s="2">
         <v>200</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="13"/>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
       <c r="K32" s="2">
         <v>0</v>
       </c>
-      <c r="L32" s="13"/>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
       <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="13"/>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
-      <c r="P32" s="13"/>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
       <c r="Q32" s="2">
         <v>0</v>
       </c>
-      <c r="R32" s="13"/>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
       <c r="S32" s="2">
         <v>0</v>
       </c>
-      <c r="T32" s="13"/>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
-      <c r="V32" s="13"/>
+      <c r="V32" s="13">
+        <v>0</v>
+      </c>
       <c r="W32" s="2">
         <v>0</v>
       </c>
-      <c r="X32" s="13"/>
+      <c r="X32" s="13">
+        <v>0</v>
+      </c>
       <c r="Y32" s="2">
         <v>0</v>
       </c>
-      <c r="Z32" s="13"/>
+      <c r="Z32" s="13">
+        <v>0</v>
+      </c>
       <c r="AA32" s="2">
         <v>0</v>
       </c>
-      <c r="AB32" s="14"/>
+      <c r="AB32" s="13">
+        <v>0</v>
+      </c>
       <c r="AC32" s="2">
         <v>0</v>
       </c>
@@ -4168,7 +4722,9 @@
       <c r="AI32" s="2">
         <v>0</v>
       </c>
-      <c r="AJ32" s="13"/>
+      <c r="AJ32" s="13">
+        <v>0</v>
+      </c>
       <c r="AK32" s="2"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.15">
@@ -4183,55 +4739,81 @@
       <c r="C33" s="2">
         <v>1000</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
       <c r="E33" s="2">
         <v>200</v>
       </c>
-      <c r="F33" s="13"/>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33" s="13"/>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
       <c r="K33" s="2">
         <v>0</v>
       </c>
-      <c r="L33" s="13"/>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33" s="13"/>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
-      <c r="P33" s="13"/>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
       <c r="Q33" s="2">
         <v>0</v>
       </c>
-      <c r="R33" s="13"/>
+      <c r="R33" s="13">
+        <v>0</v>
+      </c>
       <c r="S33" s="2">
         <v>0</v>
       </c>
-      <c r="T33" s="13"/>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="13"/>
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
       <c r="W33" s="2">
         <v>0</v>
       </c>
-      <c r="X33" s="13"/>
+      <c r="X33" s="13">
+        <v>0</v>
+      </c>
       <c r="Y33" s="2">
         <v>0</v>
       </c>
-      <c r="Z33" s="13"/>
+      <c r="Z33" s="13">
+        <v>0</v>
+      </c>
       <c r="AA33" s="2">
         <v>0</v>
       </c>
-      <c r="AB33" s="13"/>
+      <c r="AB33" s="13">
+        <v>0</v>
+      </c>
       <c r="AC33" s="2">
         <v>0</v>
       </c>
@@ -4247,7 +4829,9 @@
       <c r="AI33" s="2">
         <v>0</v>
       </c>
-      <c r="AJ33" s="13"/>
+      <c r="AJ33" s="13">
+        <v>0</v>
+      </c>
       <c r="AK33" s="2"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.15">
@@ -4262,55 +4846,81 @@
       <c r="C34" s="2">
         <v>1000</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
       <c r="E34" s="2">
         <v>200</v>
       </c>
-      <c r="F34" s="13"/>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
-      <c r="L34" s="13"/>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="N34" s="13"/>
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
-      <c r="P34" s="13"/>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
       <c r="Q34" s="2">
         <v>0</v>
       </c>
-      <c r="R34" s="13"/>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
       <c r="S34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="13"/>
+      <c r="T34" s="13">
+        <v>0</v>
+      </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="13"/>
+      <c r="V34" s="13">
+        <v>0</v>
+      </c>
       <c r="W34" s="2">
         <v>0</v>
       </c>
-      <c r="X34" s="13"/>
+      <c r="X34" s="13">
+        <v>0</v>
+      </c>
       <c r="Y34" s="2">
         <v>0</v>
       </c>
-      <c r="Z34" s="13"/>
+      <c r="Z34" s="13">
+        <v>0</v>
+      </c>
       <c r="AA34" s="2">
         <v>0</v>
       </c>
-      <c r="AB34" s="13"/>
+      <c r="AB34" s="13">
+        <v>0</v>
+      </c>
       <c r="AC34" s="2">
         <v>0</v>
       </c>
@@ -4326,7 +4936,9 @@
       <c r="AI34" s="2">
         <v>0</v>
       </c>
-      <c r="AJ34" s="13"/>
+      <c r="AJ34" s="13">
+        <v>0</v>
+      </c>
       <c r="AK34" s="2"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.15">
@@ -4341,55 +4953,81 @@
       <c r="C35" s="2">
         <v>1000</v>
       </c>
-      <c r="D35" s="13"/>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
       <c r="E35" s="2">
         <v>200</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J35" s="13"/>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
       <c r="K35" s="2">
         <v>0</v>
       </c>
-      <c r="L35" s="13"/>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
       <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="N35" s="13"/>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
-      <c r="P35" s="13"/>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
       <c r="Q35" s="2">
         <v>0</v>
       </c>
-      <c r="R35" s="13"/>
+      <c r="R35" s="13">
+        <v>0</v>
+      </c>
       <c r="S35" s="2">
         <v>0</v>
       </c>
-      <c r="T35" s="13"/>
+      <c r="T35" s="13">
+        <v>0</v>
+      </c>
       <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="V35" s="13"/>
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
       <c r="W35" s="2">
         <v>0</v>
       </c>
-      <c r="X35" s="13"/>
+      <c r="X35" s="13">
+        <v>0</v>
+      </c>
       <c r="Y35" s="2">
         <v>0</v>
       </c>
-      <c r="Z35" s="13"/>
+      <c r="Z35" s="13">
+        <v>0</v>
+      </c>
       <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AB35" s="13"/>
+      <c r="AB35" s="13">
+        <v>0</v>
+      </c>
       <c r="AC35" s="2">
         <v>0</v>
       </c>
@@ -4405,7 +5043,9 @@
       <c r="AI35" s="2">
         <v>0</v>
       </c>
-      <c r="AJ35" s="13"/>
+      <c r="AJ35" s="13">
+        <v>0</v>
+      </c>
       <c r="AK35" s="2"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.15">
@@ -4420,55 +5060,81 @@
       <c r="C36" s="2">
         <v>1000</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
       <c r="E36" s="2">
         <v>200</v>
       </c>
-      <c r="F36" s="13"/>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="13"/>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
       <c r="K36" s="2">
         <v>0</v>
       </c>
-      <c r="L36" s="13"/>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="13"/>
+      <c r="N36" s="13">
+        <v>0</v>
+      </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
-      <c r="P36" s="13"/>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
       <c r="Q36" s="2">
         <v>0</v>
       </c>
-      <c r="R36" s="13"/>
+      <c r="R36" s="13">
+        <v>0</v>
+      </c>
       <c r="S36" s="2">
         <v>0</v>
       </c>
-      <c r="T36" s="13"/>
+      <c r="T36" s="13">
+        <v>0</v>
+      </c>
       <c r="U36" s="2">
         <v>0</v>
       </c>
-      <c r="V36" s="13"/>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
       <c r="W36" s="2">
         <v>0</v>
       </c>
-      <c r="X36" s="13"/>
+      <c r="X36" s="13">
+        <v>0</v>
+      </c>
       <c r="Y36" s="2">
         <v>0</v>
       </c>
-      <c r="Z36" s="13"/>
+      <c r="Z36" s="13">
+        <v>0</v>
+      </c>
       <c r="AA36" s="2">
         <v>0</v>
       </c>
-      <c r="AB36" s="13"/>
+      <c r="AB36" s="13">
+        <v>0</v>
+      </c>
       <c r="AC36" s="2">
         <v>0</v>
       </c>
@@ -4484,21 +5150,23 @@
       <c r="AI36" s="2">
         <v>0</v>
       </c>
-      <c r="AJ36" s="13"/>
+      <c r="AJ36" s="13">
+        <v>0</v>
+      </c>
       <c r="AK36" s="2"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.15">
-      <c r="A37" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="29"/>
+      <c r="A37" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
       <c r="C37" s="15">
         <f t="shared" ref="C37:AJ37" si="4">SUM(C6:C36)</f>
         <v>31000</v>
       </c>
       <c r="D37" s="16">
         <f t="shared" si="4"/>
-        <v>1680</v>
+        <v>0</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="4"/>
@@ -4506,19 +5174,19 @@
       </c>
       <c r="F37" s="16">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="16">
         <f t="shared" si="4"/>
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" si="4"/>
@@ -4526,7 +5194,7 @@
       </c>
       <c r="K37" s="15">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="4"/>
@@ -4534,7 +5202,7 @@
       </c>
       <c r="M37" s="15">
         <f t="shared" si="4"/>
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="N37" s="16">
         <f t="shared" si="4"/>
@@ -4542,7 +5210,7 @@
       </c>
       <c r="O37" s="15">
         <f t="shared" si="4"/>
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="P37" s="16">
         <f t="shared" si="4"/>
@@ -4550,7 +5218,7 @@
       </c>
       <c r="Q37" s="15">
         <f t="shared" si="4"/>
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="R37" s="16">
         <f t="shared" si="4"/>
@@ -4558,15 +5226,15 @@
       </c>
       <c r="S37" s="15">
         <f t="shared" si="4"/>
-        <v>33100</v>
+        <v>0</v>
       </c>
       <c r="T37" s="16">
         <f t="shared" si="4"/>
-        <v>14820</v>
+        <v>0</v>
       </c>
       <c r="U37" s="15">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="V37" s="16">
         <f t="shared" si="4"/>
@@ -4574,23 +5242,23 @@
       </c>
       <c r="W37" s="15">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="X37" s="16">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="15">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="16">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="15">
         <f t="shared" si="4"/>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="16">
         <f t="shared" si="4"/>
@@ -4626,7 +5294,7 @@
       </c>
       <c r="AJ37" s="16">
         <f t="shared" si="4"/>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="17"/>
     </row>
@@ -4637,12 +5305,10 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="G2:AK2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
@@ -4654,32 +5320,34 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="G2:AK2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:A36">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>B6="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>B6="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B36">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B6="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>B6="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM13">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$AM$13&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4705,12 +5373,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/kakeibo/家計簿ver1.2.xlsx
+++ b/kakeibo/家計簿ver1.2.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="201808" sheetId="1" r:id="rId1"/>
-    <sheet name="param" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="201809" sheetId="3" r:id="rId2"/>
+    <sheet name="param" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="自動手動">param!$A$1:$A$2</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>日常支出</t>
     <rPh sb="0" eb="2">
@@ -450,6 +451,46 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>家賃</t>
+    <rPh sb="0" eb="2">
+      <t>ヤチン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水道</t>
+    <rPh sb="0" eb="2">
+      <t>スイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NHK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交際費</t>
+    <rPh sb="0" eb="3">
+      <t>コウサイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -789,6 +830,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,29 +860,46 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -884,8 +960,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1185,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1376,55 +1452,55 @@
       </c>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="41"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="35"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="27" t="s">
         <v>24</v>
       </c>
@@ -1547,57 +1623,57 @@
       <c r="AK3" s="30"/>
     </row>
     <row r="4" spans="1:40" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="32" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32" t="s">
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32" t="s">
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="38" t="s">
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="39"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
       <c r="AM4" s="5" t="s">
         <v>7</v>
       </c>
@@ -5305,6 +5381,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="G2:AK2"/>
     <mergeCell ref="C2:F2"/>
@@ -5321,13 +5404,4200 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="AC4:AD4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A6:A36">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>B6="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>B6="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B36">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>B6="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>B6="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM13">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$AM$13&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 E3 G3 I3 K3 M3 O3 Q3 S3 U3 W3 Y3 AA3 AI3 AC3 AE3 AG3">
+      <formula1>自動手動</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN38"/>
+  <sheetViews>
+    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+    <col min="4" max="4" width="4.25" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.625" customWidth="1"/>
+    <col min="28" max="28" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.25" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="4.5" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="6.5" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="5.25" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="5.625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="4.25" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="5.625" customWidth="1"/>
+    <col min="36" max="36" width="5" customWidth="1"/>
+    <col min="37" max="37" width="13.5" customWidth="1"/>
+    <col min="38" max="38" width="7.375" customWidth="1"/>
+    <col min="39" max="39" width="7.5" customWidth="1"/>
+    <col min="40" max="40" width="6.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="31" customFormat="1" ht="9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="31" t="str">
+        <f>C3&amp;C5</f>
+        <v>手動予定</v>
+      </c>
+      <c r="D1" s="31" t="str">
+        <f t="shared" ref="D1:AJ1" si="0">D3&amp;D5</f>
+        <v>手動実績</v>
+      </c>
+      <c r="E1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="F1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="G1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="H1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="I1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="J1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="K1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="L1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="M1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="N1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="O1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="P1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="Q1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動予定</v>
+      </c>
+      <c r="R1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>自動実績</v>
+      </c>
+      <c r="S1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="T1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="U1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="V1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="W1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="X1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="Y1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="Z1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AA1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AB1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AC1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AD1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AE1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AF1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AG1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AH1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AI1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動予定</v>
+      </c>
+      <c r="AJ1" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>手動実績</v>
+      </c>
+      <c r="AK1" s="31" t="str">
+        <f>AK3&amp;AK5</f>
+        <v>詳細</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="35"/>
+    </row>
+    <row r="3" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="28" t="str">
+        <f>C3</f>
+        <v>手動</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f>E3</f>
+        <v>手動</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="28" t="str">
+        <f>G3</f>
+        <v>自動</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="28" t="str">
+        <f>I3</f>
+        <v>自動</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="28" t="str">
+        <f>K3</f>
+        <v>自動</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="28" t="str">
+        <f>M3</f>
+        <v>自動</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="28" t="str">
+        <f>O3</f>
+        <v>自動</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="28" t="str">
+        <f>Q3</f>
+        <v>自動</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="28" t="str">
+        <f>S3</f>
+        <v>手動</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="28" t="str">
+        <f>U3</f>
+        <v>手動</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="28" t="str">
+        <f>W3</f>
+        <v>手動</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="28" t="str">
+        <f>Y3</f>
+        <v>手動</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="28" t="str">
+        <f>AA3</f>
+        <v>手動</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD3" s="28" t="str">
+        <f>AC3</f>
+        <v>手動</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="28" t="str">
+        <f>AE3</f>
+        <v>手動</v>
+      </c>
+      <c r="AG3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="28" t="str">
+        <f>AG3</f>
+        <v>手動</v>
+      </c>
+      <c r="AI3" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ3" s="29" t="str">
+        <f>AI3</f>
+        <v>手動</v>
+      </c>
+      <c r="AK3" s="30"/>
+    </row>
+    <row r="4" spans="1:40" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
+      <c r="AM4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM5" s="11">
+        <f>AM6+AM7</f>
+        <v>124200</v>
+      </c>
+      <c r="AN5" s="12">
+        <f>AN6+AN7</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A6" s="22">
+        <f>AM15</f>
+        <v>43358</v>
+      </c>
+      <c r="B6" s="22" t="str">
+        <f>TEXT(A6,"aaa")</f>
+        <v>土</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>200</v>
+      </c>
+      <c r="F6" s="13">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="5">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="自動予定"),C6:AJ36)</f>
+        <v>77000</v>
+      </c>
+      <c r="AN6" s="10">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="自動実績"),C6:AJ36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A7" s="22">
+        <f>A6+1</f>
+        <v>43359</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <f t="shared" ref="B7:B36" si="1">TEXT(A7,"aaa")</f>
+        <v>日</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM7" s="5">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="手動予定"),C6:AJ36)</f>
+        <v>47200</v>
+      </c>
+      <c r="AN7" s="10">
+        <f>SUMPRODUCT((A6:A36&lt;&gt;"")*(C1:AJ1="手動実績"),C6:AJ36)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A8" s="22">
+        <f t="shared" ref="A8:A36" si="2">A7+1</f>
+        <v>43360</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A9" s="22">
+        <f t="shared" si="2"/>
+        <v>43361</v>
+      </c>
+      <c r="B9" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>200</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2"/>
+      <c r="AM9" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A10" s="22">
+        <f t="shared" si="2"/>
+        <v>43362</v>
+      </c>
+      <c r="B10" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>200</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A11" s="22">
+        <f t="shared" si="2"/>
+        <v>43363</v>
+      </c>
+      <c r="B11" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>200</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="19">
+        <f>SUMPRODUCT((A6:A36&lt;=AM10)*(C5:AJ5="予定"),C6:AJ36)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A12" s="22">
+        <f t="shared" si="2"/>
+        <v>43364</v>
+      </c>
+      <c r="B12" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>200</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="10">
+        <f>SUMPRODUCT((A6:A36&lt;=AM10)*(C5:AJ5="実績"),C6:AJ36)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A13" s="22">
+        <f t="shared" si="2"/>
+        <v>43365</v>
+      </c>
+      <c r="B13" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>200</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="19">
+        <f>AM11-AM12</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A14" s="22">
+        <f t="shared" si="2"/>
+        <v>43366</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>200</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2"/>
+      <c r="AM14" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A15" s="22">
+        <f t="shared" si="2"/>
+        <v>43367</v>
+      </c>
+      <c r="B15" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>200</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM15" s="23">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A16" s="22">
+        <f t="shared" si="2"/>
+        <v>43368</v>
+      </c>
+      <c r="B16" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>200</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6000</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3000</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A17" s="22">
+        <f t="shared" si="2"/>
+        <v>43369</v>
+      </c>
+      <c r="B17" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>200</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="13">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A18" s="22">
+        <f t="shared" si="2"/>
+        <v>43370</v>
+      </c>
+      <c r="B18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>200</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A19" s="22">
+        <f t="shared" si="2"/>
+        <v>43371</v>
+      </c>
+      <c r="B19" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>200</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A20" s="22">
+        <f t="shared" si="2"/>
+        <v>43372</v>
+      </c>
+      <c r="B20" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>200</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A21" s="22">
+        <f t="shared" si="2"/>
+        <v>43373</v>
+      </c>
+      <c r="B21" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>200</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A22" s="22">
+        <f t="shared" si="2"/>
+        <v>43374</v>
+      </c>
+      <c r="B22" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>200</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A23" s="22">
+        <f t="shared" si="2"/>
+        <v>43375</v>
+      </c>
+      <c r="B23" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>200</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A24" s="22">
+        <f t="shared" si="2"/>
+        <v>43376</v>
+      </c>
+      <c r="B24" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>200</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="2"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A25" s="22">
+        <f t="shared" si="2"/>
+        <v>43377</v>
+      </c>
+      <c r="B25" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>200</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A26" s="22">
+        <f t="shared" si="2"/>
+        <v>43378</v>
+      </c>
+      <c r="B26" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>200</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A27" s="22">
+        <f t="shared" si="2"/>
+        <v>43379</v>
+      </c>
+      <c r="B27" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>200</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>5000</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A28" s="22">
+        <f t="shared" si="2"/>
+        <v>43380</v>
+      </c>
+      <c r="B28" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>200</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="24"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A29" s="22">
+        <f t="shared" si="2"/>
+        <v>43381</v>
+      </c>
+      <c r="B29" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>200</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="26"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A30" s="22">
+        <f t="shared" si="2"/>
+        <v>43382</v>
+      </c>
+      <c r="B30" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>火</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>200</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="26"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A31" s="22">
+        <f t="shared" si="2"/>
+        <v>43383</v>
+      </c>
+      <c r="B31" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>水</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>200</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
+        <f t="shared" si="2"/>
+        <v>43384</v>
+      </c>
+      <c r="B32" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>木</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>200</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="13">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A33" s="22">
+        <f t="shared" si="2"/>
+        <v>43385</v>
+      </c>
+      <c r="B33" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>金</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>200</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A34" s="22">
+        <f t="shared" si="2"/>
+        <v>43386</v>
+      </c>
+      <c r="B34" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>土</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>200</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="13">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="13">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A35" s="22">
+        <f t="shared" si="2"/>
+        <v>43387</v>
+      </c>
+      <c r="B35" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>日</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>200</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="13">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A36" s="22">
+        <f t="shared" si="2"/>
+        <v>43388</v>
+      </c>
+      <c r="B36" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>月</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>200</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="13">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="13">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="A37" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="15">
+        <f t="shared" ref="C37:AJ37" si="3">SUM(C6:C36)</f>
+        <v>31000</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="3"/>
+        <v>6200</v>
+      </c>
+      <c r="F37" s="16">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="3"/>
+        <v>60000</v>
+      </c>
+      <c r="H37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="L37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="N37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="15">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="R37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="15">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="T37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI37" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AK37" s="17"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:AK2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:A36">
@@ -5361,7 +9631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
